--- a/RANGE-FINDER-NODE/RANGE-FINDER-NODE/Project Outputs for RANGE-FINDER-NODE/BOM/Bill of Materials-RANGE-FINDER-NODE.xlsx
+++ b/RANGE-FINDER-NODE/RANGE-FINDER-NODE/Project Outputs for RANGE-FINDER-NODE/BOM/Bill of Materials-RANGE-FINDER-NODE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\UAV-CAN-MODULES\RANGE-FINDER-NODE\RANGE-FINDER-NODE\Project Outputs for RANGE-FINDER-NODE\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6FEC3DC-26A7-46D1-89B4-64C9A0041A4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8014E282-833C-4042-AB26-A7AA04781C4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10125" xr2:uid="{03608CDC-DB2D-4E4D-8DC9-EF2767F676DB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10125" xr2:uid="{75900B67-ADF2-489F-AE57-E6B620584715}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-RANGE-FINDER-" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E63819AA-847E-46FF-9C4B-1951AA2D0707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C734ACD7-3C06-42B4-AA93-5DF099C9BB1E}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/RANGE-FINDER-NODE/RANGE-FINDER-NODE/Project Outputs for RANGE-FINDER-NODE/BOM/Bill of Materials-RANGE-FINDER-NODE.xlsx
+++ b/RANGE-FINDER-NODE/RANGE-FINDER-NODE/Project Outputs for RANGE-FINDER-NODE/BOM/Bill of Materials-RANGE-FINDER-NODE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\UAV-CAN-MODULES\RANGE-FINDER-NODE\RANGE-FINDER-NODE\Project Outputs for RANGE-FINDER-NODE\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8014E282-833C-4042-AB26-A7AA04781C4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{769AFA1C-6182-48C4-AC39-DC4876D01487}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10125" xr2:uid="{75900B67-ADF2-489F-AE57-E6B620584715}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10125" xr2:uid="{57E9D561-A81C-41AE-8605-C6B4FC303A3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-RANGE-FINDER-" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C734ACD7-3C06-42B4-AA93-5DF099C9BB1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD37067-E3BF-4854-B4F8-CC745945ECD9}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
